--- a/data/trans_bre/P21_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P21_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>14,51</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-1,37</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>60,87%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-4,11%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>14.50977082801357</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.101915831899914</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.6086696182711249</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.07386926440559385</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,92; 32,87</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-40,22; 21,94</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-18,94; 226,66</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-69,63; 150,66</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.920964190852323</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-34.96726532028259</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.189420191450369</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.6667820201489932</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>32.86850157701078</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>22.80812530657919</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>2.266607584517822</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1.836463582324585</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>8,38</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,98</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>51,52%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>9,27%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,59; 17,41</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-16,33; 11,0</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,38; 150,46</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-50,12; 68,27</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>8.382549339431117</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>3.680038717626394</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.515216601146041</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.1782763990354236</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,62</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>13,6</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,96%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>173,08%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.5925660626113814</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-12.46034816084009</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.02383179111104741</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.4187827825004591</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-11,06; 8,38</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>5,03; 21,07</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-40,07; 56,22</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>34,14; 453,31</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>17.40631382287761</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>12.64384666377384</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>1.504556221982093</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.8326419079057138</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +716,139 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.6239515168818127</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>12.48720612733013</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>-0.02956175606235333</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>1.301330100516845</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-11.05740717828007</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>1.602217724331517</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.4007040566871922</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.1045128879083113</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>8.376148098222023</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>20.39365527613408</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.5622121612085835</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>3.770104923319208</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>5,65</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>5,7</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>29,51%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>31,5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,08; 11,59</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-4,64; 12,92</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-5,7; 71,83</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-17,45; 102,1</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>5.647136722451809</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>6.777991623534802</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.2950959421733902</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.3877741646987406</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.083282874425077</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.946903505005065</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.0570379163919195</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.1351586288221932</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>11.5925555767533</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>13.9407737730474</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.7183090209136367</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>1.112983412208756</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
